--- a/CMPG323 EcoPower Logistics Data (1).xlsx
+++ b/CMPG323 EcoPower Logistics Data (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashto\Desktop\Code\CMPG-323-Project5---34202676\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8455D2C6-F9AD-4B69-8C3A-BE0254220D90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6A2071-0FF7-445A-A736-E341CF17C230}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -370,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1637,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,7 +1931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2523,6 +2523,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6aabfb8b-cf5f-49fd-bf11-6ee3d547b703">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="472eb13a-a9fc-4289-9227-80f0877ea131" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008AE7D942471B9445B4E92B95FBB8F35F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29b6baafa6f28369a42885fa32944d45">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6aabfb8b-cf5f-49fd-bf11-6ee3d547b703" xmlns:ns3="472eb13a-a9fc-4289-9227-80f0877ea131" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f63219a8efb91aee8c0c67658457f3f" ns2:_="" ns3:_="">
     <xsd:import namespace="6aabfb8b-cf5f-49fd-bf11-6ee3d547b703"/>
@@ -2731,27 +2751,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641F3C3E-2790-4D07-B746-E6D60FA9B5CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6aabfb8b-cf5f-49fd-bf11-6ee3d547b703"/>
+    <ds:schemaRef ds:uri="472eb13a-a9fc-4289-9227-80f0877ea131"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6aabfb8b-cf5f-49fd-bf11-6ee3d547b703">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="472eb13a-a9fc-4289-9227-80f0877ea131" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C2ABA4B-33E1-43D8-AA65-F29ACF54A030}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B67ED64D-6894-49C2-BC5D-71A1AEBBEA9F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2768,23 +2787,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C2ABA4B-33E1-43D8-AA65-F29ACF54A030}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641F3C3E-2790-4D07-B746-E6D60FA9B5CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6aabfb8b-cf5f-49fd-bf11-6ee3d547b703"/>
-    <ds:schemaRef ds:uri="472eb13a-a9fc-4289-9227-80f0877ea131"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CMPG323 EcoPower Logistics Data (1).xlsx
+++ b/CMPG323 EcoPower Logistics Data (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nwuac.sharepoint.com/sites/CMPG323/Shared Documents/CMPG323 2023/Projects/Project 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashto\Desktop\Code\CMPG-323-Project5---34202676\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10304DB0-9170-40E1-B667-EBB25B906859}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC8EC9E-6CC0-4ECD-87C6-A2F5E72E9BD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1380" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="99">
   <si>
     <t>CustomerId</t>
   </si>
@@ -332,13 +330,19 @@
     <t>Name</t>
   </si>
   <si>
-    <t>10/06/20923</t>
+    <t>42694</t>
+  </si>
+  <si>
+    <t>41828</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,10 +372,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,15 +697,15 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12280</v>
       </c>
@@ -728,7 +733,7 @@
         <v>5723177115</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16240</v>
       </c>
@@ -742,7 +747,7 @@
         <v>1878764468</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13735</v>
       </c>
@@ -756,7 +761,7 @@
         <v>3738283528</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15325</v>
       </c>
@@ -770,7 +775,7 @@
         <v>6447102299</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16240</v>
       </c>
@@ -784,7 +789,7 @@
         <v>1878764468</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17425</v>
       </c>
@@ -798,7 +803,7 @@
         <v>9666552669</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17950</v>
       </c>
@@ -812,7 +817,7 @@
         <v>2384982848</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18085</v>
       </c>
@@ -826,7 +831,7 @@
         <v>8945409882</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18820</v>
       </c>
@@ -840,7 +845,7 @@
         <v>1320602595</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19420</v>
       </c>
@@ -854,7 +859,7 @@
         <v>7968612324</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20320</v>
       </c>
@@ -868,7 +873,7 @@
         <v>1578247192</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20860</v>
       </c>
@@ -882,7 +887,7 @@
         <v>7425817353</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21085</v>
       </c>
@@ -896,7 +901,7 @@
         <v>5815761997</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16240</v>
       </c>
@@ -920,19 +925,19 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -949,7 +954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>456</v>
       </c>
@@ -966,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>713</v>
       </c>
@@ -983,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>714</v>
       </c>
@@ -1000,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>715</v>
       </c>
@@ -1017,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>977</v>
       </c>
@@ -1034,7 +1039,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1894</v>
       </c>
@@ -1051,7 +1056,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2822</v>
       </c>
@@ -1068,7 +1073,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4152</v>
       </c>
@@ -1085,7 +1090,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4153</v>
       </c>
@@ -1102,7 +1107,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4154</v>
       </c>
@@ -1119,7 +1124,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4170</v>
       </c>
@@ -1136,7 +1141,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4171</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4407</v>
       </c>
@@ -1170,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4408</v>
       </c>
@@ -1187,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4409</v>
       </c>
@@ -1204,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6091</v>
       </c>
@@ -1221,7 +1226,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6092</v>
       </c>
@@ -1238,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6093</v>
       </c>
@@ -1255,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6094</v>
       </c>
@@ -1272,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6095</v>
       </c>
@@ -1289,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6096</v>
       </c>
@@ -1306,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6097</v>
       </c>
@@ -1323,7 +1328,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6098</v>
       </c>
@@ -1340,7 +1345,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6099</v>
       </c>
@@ -1357,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6100</v>
       </c>
@@ -1374,7 +1379,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6101</v>
       </c>
@@ -1391,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6102</v>
       </c>
@@ -1408,7 +1413,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6103</v>
       </c>
@@ -1425,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6104</v>
       </c>
@@ -1442,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6288</v>
       </c>
@@ -1459,7 +1464,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6289</v>
       </c>
@@ -1476,7 +1481,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7320</v>
       </c>
@@ -1493,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7321</v>
       </c>
@@ -1510,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7404</v>
       </c>
@@ -1527,7 +1532,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7405</v>
       </c>
@@ -1544,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7406</v>
       </c>
@@ -1561,7 +1566,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7407</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9132</v>
       </c>
@@ -1595,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9133</v>
       </c>
@@ -1612,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9737</v>
       </c>
@@ -1638,20 +1643,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="52.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1665,7 +1670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100041</v>
       </c>
@@ -1678,11 +1683,11 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2">
-        <v>42694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100090</v>
       </c>
@@ -1695,11 +1700,11 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2">
-        <v>41828</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100216</v>
       </c>
@@ -1716,7 +1721,7 @@
         <v>42107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>44986</v>
       </c>
@@ -1724,7 +1729,7 @@
         <v>42107</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44986</v>
       </c>
@@ -1732,7 +1737,7 @@
         <v>42107</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100146</v>
       </c>
@@ -1749,7 +1754,7 @@
         <v>42138</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100069</v>
       </c>
@@ -1766,7 +1771,7 @@
         <v>42184</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>100083</v>
       </c>
@@ -1783,12 +1788,12 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>100153</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>97</v>
+      <c r="B10" s="3">
+        <v>45205</v>
       </c>
       <c r="C10">
         <v>16240</v>
@@ -1800,7 +1805,7 @@
         <v>42717</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100202</v>
       </c>
@@ -1817,7 +1822,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100048</v>
       </c>
@@ -1834,7 +1839,7 @@
         <v>42874</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100055</v>
       </c>
@@ -1851,7 +1856,7 @@
         <v>42883</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>100209</v>
       </c>
@@ -1868,7 +1873,7 @@
         <v>42925</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>100160</v>
       </c>
@@ -1885,7 +1890,7 @@
         <v>42985</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>100111</v>
       </c>
@@ -1902,7 +1907,7 @@
         <v>42998</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>100097</v>
       </c>
@@ -1930,35 +1935,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>10000215</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>950</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10000215</v>
       </c>
@@ -1972,7 +1991,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000241</v>
       </c>
@@ -1986,7 +2005,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10000304</v>
       </c>
@@ -2000,7 +2019,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10000343</v>
       </c>
@@ -2014,7 +2033,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000418</v>
       </c>
@@ -2028,7 +2047,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10000615</v>
       </c>
@@ -2042,7 +2061,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10000788</v>
       </c>
@@ -2056,7 +2075,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10000807</v>
       </c>
@@ -2070,7 +2089,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10001154</v>
       </c>
@@ -2084,7 +2103,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10001215</v>
       </c>
@@ -2098,7 +2117,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10001465</v>
       </c>
@@ -2112,7 +2131,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10001469</v>
       </c>
@@ -2126,7 +2145,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10001473</v>
       </c>
@@ -2140,7 +2159,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10001509</v>
       </c>
@@ -2154,7 +2173,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10001597</v>
       </c>
@@ -2168,7 +2187,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10001606</v>
       </c>
@@ -2182,339 +2201,325 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>10</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10001622</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>10001622</v>
+        <v>10001772</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10001979</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10001998</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10002012</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10002310</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10002475</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10002563</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10002647</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10002713</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
         <v>34</v>
       </c>
-      <c r="D20">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>10001772</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>10001979</v>
-      </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D28">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10002885</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
         <v>31</v>
       </c>
-      <c r="D22">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>10001998</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>10002012</v>
-      </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>10002310</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D29">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10002968</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10003012</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
         <v>37</v>
       </c>
-      <c r="D25">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>10002475</v>
-      </c>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>10002563</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>10002647</v>
-      </c>
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D31">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10003061</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
         <v>33</v>
       </c>
-      <c r="D28">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>10002713</v>
-      </c>
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>10002885</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D32">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10003072</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10003623</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
         <v>31</v>
       </c>
-      <c r="D30">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>10002968</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>10003012</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>10003061</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10003715</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>10003833</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
         <v>33</v>
       </c>
-      <c r="D33">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>10003072</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>10003623</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>10003715</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
       <c r="D36">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>10003833</v>
+        <v>10003846</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
       </c>
       <c r="D37">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>10003846</v>
+        <v>10004015</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10004086</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
         <v>33</v>
       </c>
-      <c r="D38">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>10004015</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" t="s">
-        <v>46</v>
-      </c>
       <c r="D39">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>10004086</v>
+        <v>10004495</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>33</v>
       </c>
       <c r="D40">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>10004495</v>
+        <v>10004667</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D41">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>10004667</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42">
         <v>557</v>
       </c>
     </row>
@@ -2524,6 +2529,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6aabfb8b-cf5f-49fd-bf11-6ee3d547b703">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="472eb13a-a9fc-4289-9227-80f0877ea131" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008AE7D942471B9445B4E92B95FBB8F35F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29b6baafa6f28369a42885fa32944d45">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6aabfb8b-cf5f-49fd-bf11-6ee3d547b703" xmlns:ns3="472eb13a-a9fc-4289-9227-80f0877ea131" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f63219a8efb91aee8c0c67658457f3f" ns2:_="" ns3:_="">
     <xsd:import namespace="6aabfb8b-cf5f-49fd-bf11-6ee3d547b703"/>
@@ -2732,34 +2757,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6aabfb8b-cf5f-49fd-bf11-6ee3d547b703">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="472eb13a-a9fc-4289-9227-80f0877ea131" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B67ED64D-6894-49C2-BC5D-71A1AEBBEA9F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641F3C3E-2790-4D07-B746-E6D60FA9B5CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6aabfb8b-cf5f-49fd-bf11-6ee3d547b703"/>
+    <ds:schemaRef ds:uri="472eb13a-a9fc-4289-9227-80f0877ea131"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C2ABA4B-33E1-43D8-AA65-F29ACF54A030}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C2ABA4B-33E1-43D8-AA65-F29ACF54A030}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641F3C3E-2790-4D07-B746-E6D60FA9B5CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B67ED64D-6894-49C2-BC5D-71A1AEBBEA9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6aabfb8b-cf5f-49fd-bf11-6ee3d547b703"/>
+    <ds:schemaRef ds:uri="472eb13a-a9fc-4289-9227-80f0877ea131"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>